--- a/database/data_to_add/re_do/Williams_1980_tbl6.xlsx
+++ b/database/data_to_add/re_do/Williams_1980_tbl6.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\re_do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA98A6E-2749-4519-A12C-7AC597230727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A6882-D6BA-47B3-9718-77CB6E2661E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7704" yWindow="4092" windowWidth="13164" windowHeight="8136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>site_name</t>
   </si>
@@ -166,6 +172,9 @@
   </si>
   <si>
     <t>tbl 6</t>
+  </si>
+  <si>
+    <t>individuals</t>
   </si>
 </sst>
 </file>
@@ -510,18 +519,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1:AL1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -657,7 +666,7 @@
         <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S2" t="s">
         <v>41</v>
@@ -704,7 +713,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -769,7 +778,7 @@
         <v>0.05</v>
       </c>
       <c r="AF3" s="3">
-        <v>511.41</v>
+        <v>50.41</v>
       </c>
       <c r="AG3" s="3">
         <v>2.96</v>
